--- a/NiTiErp/wwwroot/export-files/KhenThuong.xlsx
+++ b/NiTiErp/wwwroot/export-files/KhenThuong.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>DANH SÁCH HỢP ĐỒNG NHÂN VIÊN</t>
+    <t>DANH SÁCH QUYẾT ĐỊNH KHEN THƯỞNG</t>
   </si>
   <si>
     <t>STT</t>
@@ -418,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
